--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D928DB2-12DF-4AA7-A66D-09F4303E92EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00358C-B898-4C90-B254-F5B428BA3D0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Tên TK</t>
   </si>
@@ -71,13 +71,22 @@
   </si>
   <si>
     <t>Yolofashion@88</t>
+  </si>
+  <si>
+    <t>CLONE TIKTOK</t>
+  </si>
+  <si>
+    <t>lannhi</t>
+  </si>
+  <si>
+    <t>yolo98701@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +106,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,13 +154,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -153,10 +166,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,16 +520,16 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -512,13 +537,13 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -526,13 +551,13 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -540,43 +565,79 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -587,8 +648,9 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5CE44B6F-ECE4-42C0-8330-1E240C473281}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E00358C-B898-4C90-B254-F5B428BA3D0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4DA05-6FFE-4176-A2EC-04E1B4FBE25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Tên TK</t>
   </si>
@@ -80,6 +87,24 @@
   </si>
   <si>
     <t>yolo98701@gmail.com</t>
+  </si>
+  <si>
+    <t>hoàng nguyễn</t>
+  </si>
+  <si>
+    <t>hoangnguyen240100@gmail.com</t>
+  </si>
+  <si>
+    <t>hoangnguyen2401000</t>
+  </si>
+  <si>
+    <t>Ly Nguyễn</t>
+  </si>
+  <si>
+    <t>lynguyen12345ab@gmail.com</t>
+  </si>
+  <si>
+    <t>lynguyen240100</t>
   </si>
 </sst>
 </file>
@@ -154,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -167,9 +192,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -178,8 +200,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,12 +536,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -537,10 +561,10 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -551,10 +575,10 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -565,63 +589,63 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -635,8 +659,30 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +695,10 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
     <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C4DA05-6FFE-4176-A2EC-04E1B4FBE25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8125E-D236-4702-AFDC-0891D7C82007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Tên TK</t>
   </si>
@@ -105,13 +105,43 @@
   </si>
   <si>
     <t>lynguyen240100</t>
+  </si>
+  <si>
+    <t>Thùy Hoàng</t>
+  </si>
+  <si>
+    <t>yolo12345</t>
+  </si>
+  <si>
+    <t>yolo98706@gmail.com</t>
+  </si>
+  <si>
+    <t>sn: 1/1/2000</t>
+  </si>
+  <si>
+    <t>Cao Vân</t>
+  </si>
+  <si>
+    <t>yolo98707@gmail.com</t>
+  </si>
+  <si>
+    <t>sn: 1/1/1997</t>
+  </si>
+  <si>
+    <t>Lan Trinh</t>
+  </si>
+  <si>
+    <t>yolo98708@gmail.com</t>
+  </si>
+  <si>
+    <t>sn: 1/1/2002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +168,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -206,6 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +696,7 @@
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -683,12 +720,55 @@
       </c>
       <c r="C16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{C29BE50A-3C64-41CA-9781-43FB506834C9}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5CE44B6F-ECE4-42C0-8330-1E240C473281}"/>
@@ -697,8 +777,12 @@
     <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
     <hyperlink ref="B15" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
     <hyperlink ref="B16" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{205B6CEF-8668-4470-AA83-43133E48149C}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{EBBBBC5D-CFEB-4B85-AA29-F526503A3155}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8125E-D236-4702-AFDC-0891D7C82007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87226C-1402-45B2-8384-04A346246B5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Tên TK</t>
   </si>
@@ -135,6 +128,24 @@
   </si>
   <si>
     <t>sn: 1/1/2002</t>
+  </si>
+  <si>
+    <t>hằng hồ</t>
+  </si>
+  <si>
+    <t>yolo98702@gmail.com</t>
+  </si>
+  <si>
+    <t>hằn lê</t>
+  </si>
+  <si>
+    <t>yolo98703@gmail.com</t>
+  </si>
+  <si>
+    <t>CLONE FB</t>
+  </si>
+  <si>
+    <t>sn: 5/5/2000</t>
   </si>
 </sst>
 </file>
@@ -239,10 +250,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,12 +584,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -699,6 +710,9 @@
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -722,6 +736,34 @@
         <v>22</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
@@ -760,8 +802,24 @@
       <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -781,8 +839,12 @@
     <hyperlink ref="B25" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
     <hyperlink ref="B26" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
     <hyperlink ref="B27" r:id="rId11" xr:uid="{EBBBBC5D-CFEB-4B85-AA29-F526503A3155}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{AD2152DC-162A-4B50-9B9C-40760C102E59}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
+    <hyperlink ref="B35" r:id="rId15" xr:uid="{06E9FCD6-B18B-44EB-A2BF-6E1D160D9A00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87226C-1402-45B2-8384-04A346246B5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5625D-C449-4A12-A211-4434BA7343B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Tên TK</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>sn: 5/5/2000</t>
+  </si>
+  <si>
+    <t>hacklike68</t>
+  </si>
+  <si>
+    <t>TÊN ĐN</t>
+  </si>
+  <si>
+    <t>yolo88</t>
+  </si>
+  <si>
+    <t>Yolo123@</t>
   </si>
 </sst>
 </file>
@@ -569,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,6 +832,27 @@
       </c>
       <c r="D35" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -843,8 +876,9 @@
     <hyperlink ref="C17" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
     <hyperlink ref="B18" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
     <hyperlink ref="B35" r:id="rId15" xr:uid="{06E9FCD6-B18B-44EB-A2BF-6E1D160D9A00}"/>
+    <hyperlink ref="B42" r:id="rId16" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF5625D-C449-4A12-A211-4434BA7343B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6288AF3-55FF-4248-8E4A-4221F800C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Tên TK</t>
   </si>
@@ -64,18 +64,12 @@
     <t>yolofashion@88</t>
   </si>
   <si>
-    <t>tiktok</t>
-  </si>
-  <si>
     <t>yolo.fashion88</t>
   </si>
   <si>
     <t>Yolofashion@88</t>
   </si>
   <si>
-    <t>CLONE TIKTOK</t>
-  </si>
-  <si>
     <t>lannhi</t>
   </si>
   <si>
@@ -148,16 +142,46 @@
     <t>sn: 5/5/2000</t>
   </si>
   <si>
-    <t>hacklike68</t>
-  </si>
-  <si>
-    <t>TÊN ĐN</t>
-  </si>
-  <si>
     <t>yolo88</t>
   </si>
   <si>
     <t>Yolo123@</t>
+  </si>
+  <si>
+    <t>Thanh Mai</t>
+  </si>
+  <si>
+    <t>thoitrang12345</t>
+  </si>
+  <si>
+    <t>thoitrang98701</t>
+  </si>
+  <si>
+    <t>sn:1/1//1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLONE </t>
+  </si>
+  <si>
+    <t>TIKTOK</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>GMAIL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Hacklive68</t>
+  </si>
+  <si>
+    <t>Tiktok</t>
   </si>
 </sst>
 </file>
@@ -238,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,9 +287,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,17 +620,18 @@
     <col min="2" max="2" width="32.26953125" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
     <col min="4" max="4" width="43.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -617,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -645,60 +673,66 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -711,148 +745,195 @@
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>32</v>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>42</v>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -866,17 +947,17 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
     <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
-    <hyperlink ref="B15" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
+    <hyperlink ref="B36" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
+    <hyperlink ref="B37" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
     <hyperlink ref="C14" r:id="rId8" xr:uid="{205B6CEF-8668-4470-AA83-43133E48149C}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
-    <hyperlink ref="B26" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
-    <hyperlink ref="B27" r:id="rId11" xr:uid="{EBBBBC5D-CFEB-4B85-AA29-F526503A3155}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{AD2152DC-162A-4B50-9B9C-40760C102E59}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
+    <hyperlink ref="B18" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
+    <hyperlink ref="B19" r:id="rId11" xr:uid="{EBBBBC5D-CFEB-4B85-AA29-F526503A3155}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{AD2152DC-162A-4B50-9B9C-40760C102E59}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
     <hyperlink ref="B35" r:id="rId15" xr:uid="{06E9FCD6-B18B-44EB-A2BF-6E1D160D9A00}"/>
-    <hyperlink ref="B42" r:id="rId16" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6288AF3-55FF-4248-8E4A-4221F800C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C5984F-C5B8-4AF5-A769-DCCFB68564AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -288,11 +288,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,12 +624,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -716,7 +716,7 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1"/>
@@ -745,13 +745,13 @@
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6288AF3-55FF-4248-8E4A-4221F800C3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C39B9-DDF5-4CBB-A632-5BD1787A8FDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -288,11 +288,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,7 +611,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,12 +624,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -716,7 +716,7 @@
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1"/>
@@ -745,13 +745,13 @@
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4C39B9-DDF5-4CBB-A632-5BD1787A8FDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE2E2C-245D-43F1-863F-EFB4D6254985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE2E2C-245D-43F1-863F-EFB4D6254985}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E897A1D-5DB5-40E6-B519-A31CD8BDFD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Tên TK</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Tiktok</t>
+  </si>
+  <si>
+    <t>X*</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -293,6 +296,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,9 +625,10 @@
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
     <col min="4" max="4" width="43.6328125" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -631,7 +636,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -659,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -673,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -685,31 +690,31 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -721,18 +726,18 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -754,8 +759,11 @@
       <c r="G13" s="13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -778,7 +786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -798,7 +806,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -818,7 +826,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -837,8 +845,11 @@
       <c r="F17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -855,10 +866,10 @@
         <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -877,8 +888,11 @@
       <c r="F19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -895,7 +909,7 @@
         <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E897A1D-5DB5-40E6-B519-A31CD8BDFD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DEC3B1-EB8F-414B-A3FE-4A1AA2FF048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Tên TK</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>yolo98703@gmail.com</t>
-  </si>
-  <si>
-    <t>CLONE FB</t>
   </si>
   <si>
     <t>sn: 5/5/2000</t>
@@ -293,10 +290,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,12 +626,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -680,7 +677,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -716,13 +713,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -732,7 +729,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -751,15 +748,15 @@
         <v>3</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -774,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -797,13 +794,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -817,13 +817,16 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -840,13 +843,13 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -863,10 +866,10 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -883,72 +886,72 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="D35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -961,8 +964,8 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
     <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
-    <hyperlink ref="B36" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
-    <hyperlink ref="B37" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
     <hyperlink ref="C14" r:id="rId8" xr:uid="{205B6CEF-8668-4470-AA83-43133E48149C}"/>
     <hyperlink ref="B17" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
     <hyperlink ref="B18" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
@@ -970,10 +973,9 @@
     <hyperlink ref="B15" r:id="rId12" xr:uid="{AD2152DC-162A-4B50-9B9C-40760C102E59}"/>
     <hyperlink ref="C15" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
-    <hyperlink ref="B35" r:id="rId15" xr:uid="{06E9FCD6-B18B-44EB-A2BF-6E1D160D9A00}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DEC3B1-EB8F-414B-A3FE-4A1AA2FF048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1CDB7-4836-4958-9CED-17BE32ECF085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Tên TK</t>
   </si>
@@ -151,9 +151,6 @@
     <t>thoitrang12345</t>
   </si>
   <si>
-    <t>thoitrang98701</t>
-  </si>
-  <si>
     <t>sn:1/1//1998</t>
   </si>
   <si>
@@ -182,6 +179,15 @@
   </si>
   <si>
     <t>X*</t>
+  </si>
+  <si>
+    <t>thoitrang98701@gmail.com</t>
+  </si>
+  <si>
+    <t>thoitrang98702@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngọc Lan</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,7 +683,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>36</v>
@@ -729,7 +735,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -748,13 +754,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>7</v>
@@ -774,13 +780,13 @@
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -797,13 +803,13 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -820,13 +826,13 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -843,13 +849,13 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -866,10 +872,10 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -886,72 +892,95 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="5"/>
-      <c r="D35" s="11"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
+      <c r="D34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -964,8 +993,8 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
     <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
-    <hyperlink ref="B21" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
-    <hyperlink ref="B22" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
+    <hyperlink ref="B20" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
     <hyperlink ref="C14" r:id="rId8" xr:uid="{205B6CEF-8668-4470-AA83-43133E48149C}"/>
     <hyperlink ref="B17" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
     <hyperlink ref="B18" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
@@ -974,8 +1003,10 @@
     <hyperlink ref="C15" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
     <hyperlink ref="B16" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
     <hyperlink ref="C10" r:id="rId15" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{E2CCB9AF-71AC-421C-BF57-6EA25F99C889}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{F006EA83-E336-447B-9254-4DEA2754FF83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1CDB7-4836-4958-9CED-17BE32ECF085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD91483-F6E1-4B4A-92EE-5624ED935AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>Tên TK</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>Ngọc Lan</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
+  </si>
+  <si>
+    <t>Lann Anh</t>
+  </si>
+  <si>
+    <t>thoitrang98703@gmail.com</t>
+  </si>
+  <si>
+    <t>sn: 1/1/1998</t>
+  </si>
+  <si>
+    <t>x*</t>
   </si>
 </sst>
 </file>
@@ -240,7 +258,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,12 +281,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -300,6 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -631,7 +661,7 @@
     <col min="8" max="8" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
@@ -639,7 +669,7 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -653,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -667,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -681,7 +711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -693,31 +723,31 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -729,18 +759,18 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -765,8 +795,11 @@
       <c r="H13" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -789,7 +822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -812,7 +845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -834,8 +867,11 @@
       <c r="G16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -857,8 +893,11 @@
       <c r="H17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -877,8 +916,11 @@
       <c r="F18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -900,8 +942,11 @@
       <c r="H19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -917,8 +962,11 @@
       <c r="H20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -934,8 +982,11 @@
       <c r="H21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -954,8 +1005,11 @@
       <c r="F22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -976,6 +1030,35 @@
       </c>
       <c r="H23" t="s">
         <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
@@ -1005,8 +1088,9 @@
     <hyperlink ref="C10" r:id="rId15" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
     <hyperlink ref="B22" r:id="rId16" xr:uid="{E2CCB9AF-71AC-421C-BF57-6EA25F99C889}"/>
     <hyperlink ref="B23" r:id="rId17" xr:uid="{F006EA83-E336-447B-9254-4DEA2754FF83}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{2255DCD9-F2CA-499D-80CA-55B6BC85F8C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D1CDB7-4836-4958-9CED-17BE32ECF085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5D796-3288-475E-A4A9-08D38C35CF28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Tên TK</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Ngọc Lan</t>
+  </si>
+  <si>
+    <t>FB BÁN HÀNG</t>
+  </si>
+  <si>
+    <t>ngocha00</t>
+  </si>
+  <si>
+    <t>TK dùng đăng bài bán hàng trong group, kb để tăng tệp khách hàng nhé</t>
   </si>
 </sst>
 </file>
@@ -615,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,50 +662,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9334587898</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -718,83 +735,66 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H14" s="15" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -814,13 +814,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -837,82 +837,88 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
         <v>46</v>
@@ -920,13 +926,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
@@ -937,50 +943,67 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="5"/>
-      <c r="D34" s="11"/>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
+      <c r="D35" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -988,23 +1011,23 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{C29BE50A-3C64-41CA-9781-43FB506834C9}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5CE44B6F-ECE4-42C0-8330-1E240C473281}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
-    <hyperlink ref="B20" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
-    <hyperlink ref="B21" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{205B6CEF-8668-4470-AA83-43133E48149C}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
-    <hyperlink ref="B18" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
-    <hyperlink ref="B19" r:id="rId11" xr:uid="{EBBBBC5D-CFEB-4B85-AA29-F526503A3155}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{AD2152DC-162A-4B50-9B9C-40760C102E59}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
-    <hyperlink ref="C10" r:id="rId15" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
-    <hyperlink ref="B22" r:id="rId16" xr:uid="{E2CCB9AF-71AC-421C-BF57-6EA25F99C889}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{F006EA83-E336-447B-9254-4DEA2754FF83}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{C29BE50A-3C64-41CA-9781-43FB506834C9}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{5CE44B6F-ECE4-42C0-8330-1E240C473281}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{2232FD74-5E77-4B41-99EE-D476FADFB5A1}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{84AEEB3E-29A8-4452-9430-1243F6B11140}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{5FFBD3C0-04A3-4121-8689-AED082BEDB9D}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{AE345842-AC46-47F1-BA16-C0A86C11CBB3}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{D716DBD7-59AA-40F7-A9F1-97F33C506D82}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{205B6CEF-8668-4470-AA83-43133E48149C}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{3B6AA077-5FC3-4BAC-8CC2-8085F4BD8F29}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{1AD26B79-B145-44F9-AD52-4399BE202813}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{EBBBBC5D-CFEB-4B85-AA29-F526503A3155}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{AD2152DC-162A-4B50-9B9C-40760C102E59}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{451B5E22-C9B9-4F9B-B7E8-79087CDA914C}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{22526125-C130-4364-A264-AACF6E8F080D}"/>
+    <hyperlink ref="C11" r:id="rId15" xr:uid="{AA662370-6741-4678-B245-722DB8DF8959}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{E2CCB9AF-71AC-421C-BF57-6EA25F99C889}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{F006EA83-E336-447B-9254-4DEA2754FF83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5D796-3288-475E-A4A9-08D38C35CF28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7A346-D64D-4E05-9DA0-1E0C73CA2EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +236,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -309,6 +316,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,7 +636,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,10 +717,10 @@
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E7A346-D64D-4E05-9DA0-1E0C73CA2EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9475B6-098F-4675-B765-8578ED5B5CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Tên TK</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>TK dùng đăng bài bán hàng trong group, kb để tăng tệp khách hàng nhé</t>
+  </si>
+  <si>
+    <t>09334587898</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Nguyên</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -313,11 +322,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,20 +656,20 @@
     <col min="1" max="1" width="12.7265625" customWidth="1"/>
     <col min="2" max="2" width="32.26953125" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.6328125" customWidth="1"/>
+    <col min="4" max="4" width="70.453125" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" customWidth="1"/>
     <col min="8" max="8" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -671,12 +683,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4">
-        <v>9334587898</v>
+      <c r="B3" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>54</v>
@@ -685,7 +697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,43 +725,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -761,18 +773,18 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -797,8 +809,11 @@
       <c r="H14" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -821,7 +836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -844,7 +859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -867,7 +882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -889,8 +904,11 @@
       <c r="H18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -909,8 +927,11 @@
       <c r="F19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -932,8 +953,11 @@
       <c r="H20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -949,8 +973,11 @@
       <c r="H21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -966,8 +993,11 @@
       <c r="H22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -986,8 +1016,11 @@
       <c r="F23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1008,6 +1041,9 @@
       </c>
       <c r="H24" t="s">
         <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Yolo-Fashion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9475B6-098F-4675-B765-8578ED5B5CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD5651E-41DB-48D4-8FFB-DA459D75D31F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Tên TK</t>
   </si>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t>Nguyên</t>
+  </si>
+  <si>
+    <t>Shopee</t>
+  </si>
+  <si>
+    <t>Yolo12345</t>
+  </si>
+  <si>
+    <t>ngày 5/5/2000</t>
+  </si>
+  <si>
+    <t>ngày 5/5/2001</t>
+  </si>
+  <si>
+    <t>Ngocha00</t>
   </si>
 </sst>
 </file>
@@ -324,10 +339,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,12 +677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -687,7 +702,7 @@
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -738,16 +753,32 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="8">
+        <v>334587898</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>

--- a/Thông tin đăng nhập.xlsx
+++ b/Thông tin đăng nhập.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD5651E-41DB-48D4-8FFB-DA459D75D31F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627FEA8A-FC05-4D38-9A08-BFDB39728982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A794C49C-91FA-4CDB-9EBB-5ED38970F728}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
   <si>
     <t>Tên TK</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Ngocha00</t>
+  </si>
+  <si>
+    <t>TOPSHIP</t>
   </si>
 </sst>
 </file>
@@ -280,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,12 +306,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -345,6 +359,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -662,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED7254-901C-4224-AA89-5DE9C65321E0}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,8 +821,15 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
+        <v>941748643</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
